--- a/Input/Rope Data.xlsx
+++ b/Input/Rope Data.xlsx
@@ -42,10 +42,10 @@
     <t>Order Within Block</t>
   </si>
   <si>
-    <t>Additional Length with Weight (In Inches)</t>
+    <t>Polypropylene</t>
   </si>
   <si>
-    <t>Polypropylene</t>
+    <t>Additional Length with Weight Inches</t>
   </si>
 </sst>
 </file>
@@ -556,7 +556,7 @@
   <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B17"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -578,7 +578,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
@@ -589,7 +589,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1">
         <v>0.5</v>
@@ -606,7 +606,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1">
         <v>0.25</v>
@@ -623,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
         <v>0.625</v>
@@ -640,7 +640,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>0.25</v>
@@ -657,7 +657,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
         <v>0.5</v>
@@ -675,7 +675,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1">
         <v>0.375</v>
@@ -693,7 +693,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1">
         <v>0.625</v>
@@ -711,7 +711,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1">
         <v>0.375</v>
@@ -729,7 +729,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1">
         <v>0.625</v>
@@ -746,7 +746,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1">
         <v>0.25</v>
@@ -764,7 +764,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1">
         <v>0.5</v>
@@ -781,7 +781,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1">
         <v>0.25</v>
@@ -799,7 +799,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1">
         <v>0.625</v>
@@ -816,7 +816,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="1">
         <v>0.375</v>
@@ -834,7 +834,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" s="1">
         <v>0.5</v>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="1">
         <v>0.375</v>

--- a/Input/Rope Data.xlsx
+++ b/Input/Rope Data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
@@ -52,6 +52,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -157,11 +160,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="61">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -556,7 +560,7 @@
   <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -594,7 +598,7 @@
       <c r="C2" s="1">
         <v>0.5</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>0.125</v>
       </c>
       <c r="E2" s="2">
@@ -611,7 +615,7 @@
       <c r="C3" s="1">
         <v>0.25</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>0.1875</v>
       </c>
       <c r="E3" s="2">
@@ -628,7 +632,7 @@
       <c r="C4" s="1">
         <v>0.625</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>0.1875</v>
       </c>
       <c r="E4" s="2">
@@ -645,7 +649,7 @@
       <c r="C5" s="1">
         <v>0.25</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>0.125</v>
       </c>
       <c r="E5" s="2">
@@ -662,7 +666,7 @@
       <c r="C6" s="1">
         <v>0.5</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <f>2.5/8</f>
         <v>0.3125</v>
       </c>
@@ -680,7 +684,7 @@
       <c r="C7" s="1">
         <v>0.375</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <f>0.5/8</f>
         <v>6.25E-2</v>
       </c>
@@ -698,7 +702,7 @@
       <c r="C8" s="1">
         <v>0.625</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <f>1.5/8</f>
         <v>0.1875</v>
       </c>
@@ -716,7 +720,7 @@
       <c r="C9" s="1">
         <v>0.375</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <f>0.5/8</f>
         <v>6.25E-2</v>
       </c>
@@ -734,7 +738,7 @@
       <c r="C10" s="1">
         <v>0.625</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <v>0.25</v>
       </c>
       <c r="E10" s="2">
@@ -751,7 +755,7 @@
       <c r="C11" s="1">
         <v>0.25</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="4">
         <f>0.5/8</f>
         <v>6.25E-2</v>
       </c>
@@ -769,7 +773,7 @@
       <c r="C12" s="1">
         <v>0.5</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="4">
         <v>0.25</v>
       </c>
       <c r="E12" s="2">
@@ -786,7 +790,7 @@
       <c r="C13" s="1">
         <v>0.25</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="4">
         <f>0.5/8</f>
         <v>6.25E-2</v>
       </c>
@@ -804,7 +808,7 @@
       <c r="C14" s="1">
         <v>0.625</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="4">
         <v>0.125</v>
       </c>
       <c r="E14" s="2">
@@ -821,7 +825,7 @@
       <c r="C15" s="1">
         <v>0.375</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="4">
         <f>1.5/8</f>
         <v>0.1875</v>
       </c>
@@ -839,7 +843,7 @@
       <c r="C16" s="1">
         <v>0.5</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="4">
         <f>1.5/8</f>
         <v>0.1875</v>
       </c>
@@ -857,7 +861,7 @@
       <c r="C17" s="1">
         <v>0.375</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="4">
         <v>0.25</v>
       </c>
       <c r="E17" s="2">
@@ -874,7 +878,7 @@
       <c r="C18" s="1">
         <v>0.5</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="4">
         <v>0.75</v>
       </c>
       <c r="E18" s="2">
@@ -891,7 +895,7 @@
       <c r="C19" s="1">
         <v>0.25</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="4">
         <v>0.625</v>
       </c>
       <c r="E19" s="2">
@@ -908,7 +912,7 @@
       <c r="C20" s="1">
         <v>0.375</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="4">
         <v>0.375</v>
       </c>
       <c r="E20" s="2">
@@ -925,7 +929,7 @@
       <c r="C21" s="1">
         <v>0.625</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="4">
         <v>0.4375</v>
       </c>
       <c r="E21" s="2">
@@ -942,7 +946,7 @@
       <c r="C22" s="1">
         <v>0.25</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="4">
         <v>0.5625</v>
       </c>
       <c r="E22" s="2">
@@ -959,7 +963,7 @@
       <c r="C23" s="1">
         <v>0.625</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="4">
         <v>0.5</v>
       </c>
       <c r="E23" s="2">
@@ -976,7 +980,7 @@
       <c r="C24" s="1">
         <v>0.375</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="4">
         <v>0.5</v>
       </c>
       <c r="E24" s="2">
@@ -993,7 +997,7 @@
       <c r="C25" s="1">
         <v>0.5</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="4">
         <v>0.5</v>
       </c>
       <c r="E25" s="2">
@@ -1010,7 +1014,7 @@
       <c r="C26" s="1">
         <v>0.625</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="4">
         <f>5.5/8</f>
         <v>0.6875</v>
       </c>
@@ -1028,7 +1032,7 @@
       <c r="C27" s="1">
         <v>0.5</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="4">
         <v>0.625</v>
       </c>
       <c r="E27" s="2">
@@ -1045,7 +1049,7 @@
       <c r="C28" s="1">
         <v>0.25</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="4">
         <v>0.75</v>
       </c>
       <c r="E28" s="2">
@@ -1062,7 +1066,7 @@
       <c r="C29" s="1">
         <v>0.375</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="4">
         <v>0.5</v>
       </c>
       <c r="E29" s="2">
@@ -1079,7 +1083,7 @@
       <c r="C30" s="1">
         <v>0.5</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="4">
         <f>4.5/8</f>
         <v>0.5625</v>
       </c>
@@ -1097,7 +1101,7 @@
       <c r="C31" s="1">
         <v>0.625</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="4">
         <v>0.5</v>
       </c>
       <c r="E31" s="2">
@@ -1114,7 +1118,7 @@
       <c r="C32" s="1">
         <v>0.25</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="4">
         <f>4.5/8</f>
         <v>0.5625</v>
       </c>
@@ -1132,7 +1136,7 @@
       <c r="C33" s="1">
         <v>0.375</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="4">
         <f>2.5/8</f>
         <v>0.3125</v>
       </c>
@@ -1150,7 +1154,7 @@
       <c r="C34" s="1">
         <v>0.625</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="4">
         <v>0.25</v>
       </c>
       <c r="E34" s="2">
@@ -1167,7 +1171,7 @@
       <c r="C35" s="1">
         <v>0.375</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="4">
         <v>6.25E-2</v>
       </c>
       <c r="E35" s="2">
@@ -1184,7 +1188,7 @@
       <c r="C36" s="1">
         <v>0.5</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="4">
         <v>0.125</v>
       </c>
       <c r="E36" s="2">
@@ -1201,7 +1205,7 @@
       <c r="C37" s="1">
         <v>0.25</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="4">
         <v>0.125</v>
       </c>
       <c r="E37" s="2">
@@ -1218,7 +1222,7 @@
       <c r="C38" s="1">
         <v>0.5</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="4">
         <v>0.125</v>
       </c>
       <c r="E38" s="2">
@@ -1235,7 +1239,7 @@
       <c r="C39" s="1">
         <v>0.25</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="4">
         <f>0.5/8</f>
         <v>6.25E-2</v>
       </c>
@@ -1253,7 +1257,7 @@
       <c r="C40" s="1">
         <v>0.625</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="4">
         <v>0.125</v>
       </c>
       <c r="E40" s="2">
@@ -1270,7 +1274,7 @@
       <c r="C41" s="1">
         <v>0.375</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="4">
         <v>0.125</v>
       </c>
       <c r="E41" s="2">
@@ -1287,7 +1291,7 @@
       <c r="C42" s="1">
         <v>0.625</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="4">
         <f>1.5/8</f>
         <v>0.1875</v>
       </c>
@@ -1305,7 +1309,7 @@
       <c r="C43" s="1">
         <v>0.25</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="4">
         <v>0.125</v>
       </c>
       <c r="E43" s="2">
@@ -1322,7 +1326,7 @@
       <c r="C44" s="1">
         <v>0.5</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="4">
         <v>0.125</v>
       </c>
       <c r="E44" s="2">
@@ -1339,7 +1343,7 @@
       <c r="C45" s="1">
         <v>0.375</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="4">
         <v>0.125</v>
       </c>
       <c r="E45" s="2">
@@ -1356,7 +1360,7 @@
       <c r="C46" s="1">
         <v>0.375</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="4">
         <f>0.5/8</f>
         <v>6.25E-2</v>
       </c>
@@ -1374,7 +1378,7 @@
       <c r="C47" s="1">
         <v>0.625</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="4">
         <v>0.25</v>
       </c>
       <c r="E47" s="2">
@@ -1391,7 +1395,7 @@
       <c r="C48" s="1">
         <v>0.25</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="4">
         <f>1.5/8</f>
         <v>0.1875</v>
       </c>
@@ -1409,7 +1413,7 @@
       <c r="C49" s="1">
         <v>0.5</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="4">
         <f>1.5/8</f>
         <v>0.1875</v>
       </c>
@@ -1427,7 +1431,7 @@
       <c r="C50" s="1">
         <v>0.5</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="4">
         <v>1</v>
       </c>
       <c r="E50" s="2">
@@ -1444,7 +1448,7 @@
       <c r="C51" s="1">
         <v>0.25</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="4">
         <v>1.125</v>
       </c>
       <c r="E51" s="2">
@@ -1461,7 +1465,7 @@
       <c r="C52" s="1">
         <v>0.375</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="4">
         <v>0.625</v>
       </c>
       <c r="E52" s="2">
@@ -1478,7 +1482,7 @@
       <c r="C53" s="1">
         <v>0.625</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="4">
         <v>0.875</v>
       </c>
       <c r="E53" s="2">
@@ -1495,7 +1499,7 @@
       <c r="C54" s="1">
         <v>0.375</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="4">
         <v>0.75</v>
       </c>
       <c r="E54" s="2">
@@ -1512,7 +1516,7 @@
       <c r="C55" s="1">
         <v>0.5</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="4">
         <v>1.25</v>
       </c>
       <c r="E55" s="2">
@@ -1529,7 +1533,7 @@
       <c r="C56" s="1">
         <v>0.625</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="4">
         <v>1.125</v>
       </c>
       <c r="E56" s="2">
@@ -1546,7 +1550,7 @@
       <c r="C57" s="1">
         <v>0.25</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="4">
         <v>1.375</v>
       </c>
       <c r="E57" s="2">
@@ -1563,7 +1567,7 @@
       <c r="C58" s="1">
         <v>0.25</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="4">
         <v>1.5</v>
       </c>
       <c r="E58" s="2">
@@ -1580,7 +1584,7 @@
       <c r="C59" s="1">
         <v>0.5</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="4">
         <f>7.5/8</f>
         <v>0.9375</v>
       </c>
@@ -1598,7 +1602,7 @@
       <c r="C60" s="1">
         <v>0.375</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="4">
         <v>1.75</v>
       </c>
       <c r="E60" s="2">
@@ -1615,7 +1619,7 @@
       <c r="C61" s="1">
         <v>0.625</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="4">
         <v>1</v>
       </c>
       <c r="E61" s="2">
@@ -1632,7 +1636,7 @@
       <c r="C62" s="1">
         <v>0.375</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="4">
         <f>7.5/8</f>
         <v>0.9375</v>
       </c>
@@ -1650,7 +1654,7 @@
       <c r="C63" s="1">
         <v>0.5</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="4">
         <f>13.5/8</f>
         <v>1.6875</v>
       </c>
@@ -1668,7 +1672,7 @@
       <c r="C64" s="1">
         <v>0.625</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="4">
         <f>7.5/8</f>
         <v>0.9375</v>
       </c>
@@ -1686,7 +1690,7 @@
       <c r="C65" s="1">
         <v>0.25</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="4">
         <v>1.375</v>
       </c>
       <c r="E65" s="2">
